--- a/AAII_Financials/Quarterly/CLHRF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLHRF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>CLHRF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,8 +1038,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1027,8 +1047,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,29 +1125,30 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
@@ -1132,11 +1159,11 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
@@ -1144,10 +1171,13 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,19 +1185,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1179,10 +1209,10 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1191,10 +1221,13 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,35 +1255,35 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,46 +1305,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
-        <v>200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,60 +1393,66 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
-        <v>200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
@@ -1414,41 +1460,44 @@
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
-        <v>1900</v>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+        <v>1800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-2000</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-500</v>
-      </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H26" s="3">
-        <v>2200</v>
+        <v>-2300</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-500</v>
-      </c>
       <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H27" s="3">
-        <v>2200</v>
+        <v>-2300</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,35 +1855,35 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
       </c>
       <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-500</v>
-      </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H33" s="3">
-        <v>2200</v>
+        <v>-2300</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-500</v>
-      </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H35" s="3">
-        <v>2200</v>
+        <v>-2300</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10400</v>
+        <v>7800</v>
       </c>
       <c r="E41" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H41" s="3">
         <v>6000</v>
       </c>
-      <c r="F41" s="3">
-        <v>8700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K41" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L41" s="3">
+        <v>10700</v>
+      </c>
+      <c r="M41" s="3">
+        <v>14200</v>
+      </c>
+      <c r="N41" s="3">
         <v>13900</v>
       </c>
-      <c r="I41" s="3">
-        <v>11400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>14000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>10700</v>
-      </c>
-      <c r="L41" s="3">
-        <v>14200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>13900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2110,29 +2200,29 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G42" s="3">
-        <v>7300</v>
+        <v>4800</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="I42" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3">
         <v>2700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2175,16 +2268,16 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,19 +2338,22 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2284,77 +2383,83 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F46" s="3">
         <v>10700</v>
       </c>
-      <c r="E46" s="3">
-        <v>11100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>13700</v>
-      </c>
       <c r="G46" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="H46" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J46" s="3">
         <v>13900</v>
       </c>
-      <c r="I46" s="3">
-        <v>14400</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3100</v>
+        <v>5000</v>
       </c>
       <c r="E47" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F47" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G47" s="3">
         <v>3000</v>
       </c>
       <c r="H47" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I47" s="3">
         <v>2900</v>
@@ -2363,17 +2468,17 @@
         <v>2800</v>
       </c>
       <c r="K47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L47" s="3">
         <v>2700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2700</v>
       </c>
-      <c r="N47" s="3">
-        <v>100</v>
-      </c>
       <c r="O47" s="3">
         <v>100</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2410,28 +2518,31 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
       </c>
       <c r="N48" s="3">
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
         <v>14400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>14900</v>
       </c>
       <c r="P48" s="3">
         <v>14900</v>
       </c>
       <c r="Q48" s="3">
+        <v>14900</v>
+      </c>
+      <c r="R48" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2588,17 +2708,17 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2610,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="E54" s="3">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="F54" s="3">
+        <v>13900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>16400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>16500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K54" s="3">
         <v>17000</v>
       </c>
-      <c r="G54" s="3">
-        <v>16700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>17100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>17500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>17000</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2771,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2783,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2856,16 +2993,16 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="I59" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>2100</v>
@@ -2874,13 +3011,13 @@
         <v>2100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -2891,55 +3028,61 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>2200</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="I60" s="3">
-        <v>2300</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>2200</v>
       </c>
       <c r="K60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
       <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
       <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3015,25 +3161,28 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>800</v>
       </c>
       <c r="N62" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="O62" s="3">
         <v>1200</v>
       </c>
       <c r="P62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3185,16 +3343,16 @@
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>2200</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>2200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="I66" s="3">
-        <v>2300</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>2200</v>
@@ -3203,25 +3361,28 @@
         <v>2200</v>
       </c>
       <c r="L66" s="3">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="M66" s="3">
         <v>900</v>
       </c>
       <c r="N66" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="O66" s="3">
         <v>1400</v>
       </c>
       <c r="P66" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="Q66" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-18900</v>
       </c>
-      <c r="E72" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-18500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-16200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-18500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-20700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="E76" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F76" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>14200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>16400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K76" s="3">
+        <v>14800</v>
+      </c>
+      <c r="L76" s="3">
+        <v>14200</v>
+      </c>
+      <c r="M76" s="3">
+        <v>16400</v>
+      </c>
+      <c r="N76" s="3">
+        <v>15900</v>
+      </c>
+      <c r="O76" s="3">
+        <v>13200</v>
+      </c>
+      <c r="P76" s="3">
+        <v>13700</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>14200</v>
+      </c>
+      <c r="R76" s="3">
         <v>14300</v>
       </c>
-      <c r="F76" s="3">
-        <v>14800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>14500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>17000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>15200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>14800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>14200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>16400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>15900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>13200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>13700</v>
-      </c>
-      <c r="P76" s="3">
-        <v>14200</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>14300</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-500</v>
-      </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H81" s="3">
-        <v>2200</v>
+        <v>-2300</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>-2500</v>
-      </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-2400</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,22 +4395,23 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4202,17 +4423,17 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,46 +4543,49 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4900</v>
+        <v>-1900</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="F94" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-7300</v>
+        <v>2200</v>
       </c>
       <c r="H94" s="3">
-        <v>3000</v>
+        <v>-7000</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>15000</v>
       </c>
-      <c r="N94" s="3">
-        <v>100</v>
-      </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,44 +4813,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-100</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -4615,37 +4861,40 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4400</v>
+        <v>-2300</v>
       </c>
       <c r="E102" s="3">
-        <v>-2700</v>
+        <v>4200</v>
       </c>
       <c r="F102" s="3">
-        <v>2500</v>
+        <v>-2600</v>
       </c>
       <c r="G102" s="3">
-        <v>-7700</v>
+        <v>2400</v>
       </c>
       <c r="H102" s="3">
-        <v>2500</v>
+        <v>-7400</v>
       </c>
       <c r="I102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13800</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLHRF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLHRF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>CLHRF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1041,8 +1060,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1050,8 +1069,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1059,13 +1078,16 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,23 +1161,23 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
@@ -1162,11 +1188,11 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
@@ -1174,10 +1200,13 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,22 +1214,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1212,10 +1241,10 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1224,10 +1253,13 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,38 +1288,38 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>300</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>200</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1296,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,49 +1341,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-400</v>
-      </c>
       <c r="G21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
         <v>100</v>
       </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,66 +1435,72 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-400</v>
-      </c>
       <c r="G23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
         <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
@@ -1463,41 +1508,44 @@
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="3">
-        <v>1800</v>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+        <v>1900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-2100</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>600</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>400</v>
+      </c>
+      <c r="O26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>400</v>
+      </c>
+      <c r="O27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,38 +1924,38 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1896,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>600</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>400</v>
+      </c>
+      <c r="O33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>600</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>400</v>
+      </c>
+      <c r="O35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,91 +2226,95 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7800</v>
+        <v>8800</v>
       </c>
       <c r="E41" s="3">
-        <v>10100</v>
+        <v>8100</v>
       </c>
       <c r="F41" s="3">
-        <v>5800</v>
+        <v>10500</v>
       </c>
       <c r="G41" s="3">
-        <v>8400</v>
+        <v>6100</v>
       </c>
       <c r="H41" s="3">
-        <v>6000</v>
+        <v>8800</v>
       </c>
       <c r="I41" s="3">
-        <v>13400</v>
+        <v>6300</v>
       </c>
       <c r="J41" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K41" s="3">
         <v>11000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13900</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="H42" s="3">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>7300</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>2900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3">
         <v>2700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2271,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,22 +2436,25 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2386,102 +2484,108 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8100</v>
+        <v>9300</v>
       </c>
       <c r="E46" s="3">
-        <v>10300</v>
+        <v>8400</v>
       </c>
       <c r="F46" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="G46" s="3">
-        <v>13200</v>
+        <v>11200</v>
       </c>
       <c r="H46" s="3">
-        <v>13100</v>
+        <v>13900</v>
       </c>
       <c r="I46" s="3">
+        <v>13700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>13900</v>
+      </c>
+      <c r="L46" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M46" s="3">
         <v>13500</v>
       </c>
-      <c r="J46" s="3">
-        <v>13900</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
+        <v>14200</v>
+      </c>
+      <c r="O46" s="3">
         <v>14000</v>
       </c>
-      <c r="L46" s="3">
-        <v>13500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>14200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>14000</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="E47" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I47" s="3">
         <v>3000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="J47" s="3">
         <v>3000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2800</v>
       </c>
       <c r="K47" s="3">
         <v>2800</v>
       </c>
       <c r="L47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M47" s="3">
         <v>2700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2700</v>
       </c>
-      <c r="O47" s="3">
-        <v>100</v>
-      </c>
       <c r="P47" s="3">
         <v>100</v>
       </c>
@@ -2491,8 +2595,11 @@
       <c r="R47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2521,28 +2628,31 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
       <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
         <v>14400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>14900</v>
       </c>
       <c r="Q48" s="3">
         <v>14900</v>
       </c>
       <c r="R48" s="3">
+        <v>14900</v>
+      </c>
+      <c r="S48" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,13 +2807,16 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
@@ -2711,17 +2830,17 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2733,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13300</v>
+        <v>13900</v>
       </c>
       <c r="E54" s="3">
-        <v>13500</v>
+        <v>13900</v>
       </c>
       <c r="F54" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="G54" s="3">
-        <v>16400</v>
+        <v>14500</v>
       </c>
       <c r="H54" s="3">
-        <v>16100</v>
+        <v>17200</v>
       </c>
       <c r="I54" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="J54" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K54" s="3">
         <v>16900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2905,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2917,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2996,16 +3132,16 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="J59" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>2100</v>
@@ -3014,13 +3150,13 @@
         <v>2100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3031,8 +3167,11 @@
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3040,49 +3179,52 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="J60" s="3">
-        <v>2200</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>2200</v>
       </c>
       <c r="L60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
       <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3164,25 +3309,28 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>800</v>
       </c>
       <c r="O62" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="P62" s="3">
         <v>1200</v>
       </c>
       <c r="Q62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R62" s="3">
         <v>1000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3346,16 +3503,16 @@
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>2200</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>2300</v>
       </c>
       <c r="J66" s="3">
-        <v>2200</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>2200</v>
@@ -3364,25 +3521,28 @@
         <v>2200</v>
       </c>
       <c r="M66" s="3">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="N66" s="3">
         <v>900</v>
       </c>
       <c r="O66" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="P66" s="3">
         <v>1400</v>
       </c>
       <c r="Q66" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="R66" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18100</v>
+        <v>-19000</v>
       </c>
       <c r="E72" s="3">
-        <v>-18200</v>
+        <v>-19000</v>
       </c>
       <c r="F72" s="3">
-        <v>-18100</v>
+        <v>-19100</v>
       </c>
       <c r="G72" s="3">
-        <v>-17700</v>
+        <v>-19000</v>
       </c>
       <c r="H72" s="3">
-        <v>-17900</v>
+        <v>-18600</v>
       </c>
       <c r="I72" s="3">
-        <v>-15600</v>
+        <v>-18700</v>
       </c>
       <c r="J72" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-17800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-20700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-20900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-20700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K76" s="3">
+        <v>14700</v>
+      </c>
+      <c r="L76" s="3">
+        <v>14800</v>
+      </c>
+      <c r="M76" s="3">
+        <v>14200</v>
+      </c>
+      <c r="N76" s="3">
+        <v>16400</v>
+      </c>
+      <c r="O76" s="3">
+        <v>15900</v>
+      </c>
+      <c r="P76" s="3">
         <v>13200</v>
       </c>
-      <c r="E76" s="3">
-        <v>13400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>13800</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="Q76" s="3">
+        <v>13700</v>
+      </c>
+      <c r="R76" s="3">
         <v>14200</v>
       </c>
-      <c r="H76" s="3">
-        <v>14000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>16400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>14700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>14800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>14200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>16400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>15900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>13200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>13700</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>14200</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>600</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>400</v>
+      </c>
+      <c r="O81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,13 +4223,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-2400</v>
-      </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-2500</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4407,14 +4627,14 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4426,17 +4646,17 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,49 +4772,52 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1900</v>
+        <v>1000</v>
       </c>
       <c r="E94" s="3">
-        <v>4800</v>
+        <v>-2000</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G94" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-7000</v>
+        <v>2300</v>
       </c>
       <c r="I94" s="3">
-        <v>2900</v>
+        <v>-7400</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>15000</v>
       </c>
-      <c r="O94" s="3">
-        <v>100</v>
-      </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,47 +5058,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-100</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -4864,40 +5109,43 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2300</v>
+        <v>600</v>
       </c>
       <c r="E102" s="3">
-        <v>4200</v>
+        <v>-2400</v>
       </c>
       <c r="F102" s="3">
-        <v>-2600</v>
+        <v>4400</v>
       </c>
       <c r="G102" s="3">
-        <v>2400</v>
+        <v>-2800</v>
       </c>
       <c r="H102" s="3">
-        <v>-7400</v>
+        <v>2500</v>
       </c>
       <c r="I102" s="3">
-        <v>2400</v>
+        <v>-7700</v>
       </c>
       <c r="J102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13800</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>
